--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\Jugend Forscht [PRIVATE]\Präsentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\Jugend Forscht [PRIVATE]\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
-  <si>
-    <t>Aufgabenliste "Gruppenprojekt"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Projektname</t>
   </si>
@@ -131,7 +128,7 @@
     <t>Vortrag üben</t>
   </si>
   <si>
-    <t>-&gt; Stichpunkte aufschreiben</t>
+    <t>Aufgabenliste</t>
   </si>
 </sst>
 </file>
@@ -141,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -208,13 +205,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -228,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,11 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -296,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,10 +292,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,29 +336,25 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="60 % - Akzent2" xfId="9" builtinId="36"/>
+  <cellStyles count="9">
+    <cellStyle name="60 % - Akzent2" xfId="8" builtinId="36"/>
     <cellStyle name="Gut" xfId="6" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -383,7 +363,7 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="53">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -439,6 +419,17 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
@@ -770,10 +761,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="totalRow" dxfId="48"/>
-      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="totalRow" dxfId="50"/>
+      <tableStyleElement type="firstColumn" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1085,7 +1076,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1092,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1110,23 +1101,23 @@
     </row>
     <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
@@ -1140,221 +1131,219 @@
     </row>
     <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43125</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43154</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="2">
-        <v>43125</v>
-      </c>
-      <c r="F8" s="18" t="s">
+        <v>43154</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="2">
-        <v>43151</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>34</v>
-      </c>
+        <v>43133</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <v>43130</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>20</v>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="12">
         <v>43129</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>20</v>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="E12" s="2">
         <v>43114</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>20</v>
+      <c r="F12" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>43116</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>20</v>
+      <c r="F13" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>43138</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>20</v>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="47" priority="53">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="52">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11 C8">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12 D7:D8">
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="38" priority="62" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="63" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1366,119 +1355,127 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>UPPER(F12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="23" priority="20">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>UPPER(F8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="20" priority="14">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>UPPER(F7)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>UPPER(F7)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>UPPER(F7)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
     <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
     <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>UPPER(F14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>UPPER(F14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>UPPER(F14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Projektname</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Aufgabenliste</t>
+  </si>
+  <si>
+    <t>Karteikarten erstellen</t>
+  </si>
+  <si>
+    <t>Vortrag anpassen &amp; neu zuweisen</t>
+  </si>
+  <si>
+    <t>nicht Begonnen</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,132 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -761,10 +895,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="52"/>
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="totalRow" dxfId="50"/>
-      <tableStyleElement type="firstColumn" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="69"/>
+      <tableStyleElement type="headerRow" dxfId="68"/>
+      <tableStyleElement type="totalRow" dxfId="67"/>
+      <tableStyleElement type="firstColumn" dxfId="66"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -784,18 +918,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G14" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B6:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B7:G14">
-    <sortCondition descending="1" ref="F6:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="B6:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B7:G16">
+    <sortCondition descending="1" ref="F6:F16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1073,10 +1207,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1151,199 +1285,233 @@
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>43125</v>
+        <v>43143</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>43154</v>
+        <v>43143</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>43133</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="13"/>
+        <v>43125</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
-        <v>43130</v>
-      </c>
-      <c r="F10" s="16" t="s">
+        <v>43154</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12">
-        <v>43129</v>
+      <c r="E11" s="2">
+        <v>43133</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2">
-        <v>43114</v>
+        <v>43130</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2">
-        <v>43116</v>
+      <c r="E13" s="12">
+        <v>43129</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>19</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43114</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43116</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="2">
         <v>43138</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="65" priority="69">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="53">
+    <cfRule type="expression" dxfId="64" priority="70">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="54">
+    <cfRule type="expression" dxfId="63" priority="71">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12 D7:D8">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1355,127 +1523,185 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>UPPER(F12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="42" priority="39">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>UPPER(F8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>UPPER(F7)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>UPPER(F7)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>UPPER(F7)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>UPPER(F14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>UPPER(F14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>UPPER(F14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="niedrig">
+      <formula>NOT(ISERROR(SEARCH("niedrig",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="mittel">
+      <formula>NOT(ISERROR(SEARCH("mittel",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="niedrig">
+      <formula>NOT(ISERROR(SEARCH("niedrig",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="mittel">
+      <formula>NOT(ISERROR(SEARCH("mittel",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>UPPER(F15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>UPPER(F15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>UPPER(F15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>UPPER(F16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>UPPER(F16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>UPPER(F16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\Jugend Forscht [PRIVATE]\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Aufgaben!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -143,11 +138,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -362,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="60 % - Akzent2" xfId="8" builtinId="36"/>
+    <cellStyle name="60% - Akzent2" xfId="8" builtinId="36"/>
     <cellStyle name="Gut" xfId="6" builtinId="26"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -372,134 +367,9 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="67">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -511,13 +381,12 @@
         <sz val="11"/>
         <color theme="1" tint="0.249977111117893"/>
         <name val="Tahoma"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -528,16 +397,15 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Tahoma"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -553,6 +421,110 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -894,11 +866,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="69"/>
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="totalRow" dxfId="67"/>
-      <tableStyleElement type="firstColumn" dxfId="66"/>
+    <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="totalRow" dxfId="64"/>
+      <tableStyleElement type="firstColumn" dxfId="63"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -918,18 +890,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="B6:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B6:G16"/>
   <sortState ref="B7:G16">
     <sortCondition descending="1" ref="F6:F16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="17"/>
+    <tableColumn id="1" name="Aufgaben" dataDxfId="5"/>
+    <tableColumn id="2" name="Zuständiger" dataDxfId="4"/>
+    <tableColumn id="3" name="Priorität" dataDxfId="3"/>
+    <tableColumn id="4" name="Zieldatum" dataDxfId="2"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Notizen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -983,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Theme FontsGroup Project List">
       <a:majorFont>
-        <a:latin typeface="Tahoma" panose="020F0302020204030204"/>
+        <a:latin typeface="Tahoma"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,7 +990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Tahoma" panose="020F0502020204030204"/>
+        <a:latin typeface="Tahoma"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,25 +1167,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
@@ -1224,16 +1196,16 @@
     <col min="7" max="7" width="44.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="17.25" customHeight="1">
       <c r="E2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1218,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1259,11 +1231,11 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="15">
       <c r="E5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="27" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="31.5" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1297,10 +1269,10 @@
         <v>43143</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="31.5" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1317,7 +1289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="31.5" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="31.5" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="31.5" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1375,7 +1347,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="31.5" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="31.5" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="31.5" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1435,7 +1407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="31.5" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1452,7 +1424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="31.5" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1471,51 +1443,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="65" priority="69">
+    <cfRule type="expression" dxfId="62" priority="69">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="70">
+    <cfRule type="expression" dxfId="61" priority="70">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="60" priority="71">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12 D7:D8">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="56" priority="59" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="54" priority="81" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="53" priority="82" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="83">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1523,184 +1495,184 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="52" priority="55">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="50" priority="57">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="45" priority="49">
       <formula>UPPER(F12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="47" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>UPPER(F8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>UPPER(F7)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>UPPER(F7)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>UPPER(F7)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>UPPER(F14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>UPPER(F14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>UPPER(F14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>UPPER(F15)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>UPPER(F15)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>UPPER(F15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>UPPER(F16)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>UPPER(F16)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>UPPER(F16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -893,7 +893,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B6:G16"/>
   <sortState ref="B7:G16">
-    <sortCondition descending="1" ref="F6:F16"/>
+    <sortCondition descending="1" ref="F6"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Aufgaben" dataDxfId="5"/>
@@ -1167,7 +1167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,7 +1182,7 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>23</v>
@@ -1269,44 +1269,44 @@
         <v>43143</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>43143</v>
+        <v>43125</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>43125</v>
+        <v>43143</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1">

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Projektname</t>
   </si>
@@ -134,10 +134,7 @@
     <t>Karteikarten erstellen</t>
   </si>
   <si>
-    <t>Vortrag anpassen &amp; neu zuweisen</t>
-  </si>
-  <si>
-    <t>nicht Begonnen</t>
+    <t>Code in PP -&gt; Pseudocode</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
@@ -393,110 +390,6 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -553,6 +446,109 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -564,27 +560,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -607,6 +582,27 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -629,46 +625,26 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -895,10 +871,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="69"/>
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="totalRow" dxfId="67"/>
-      <tableStyleElement type="firstColumn" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="totalRow" dxfId="64"/>
+      <tableStyleElement type="firstColumn" dxfId="63"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -918,18 +894,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B6:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:G16">
     <sortCondition descending="1" ref="F6:F16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1210,7 +1186,7 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1297,7 +1273,7 @@
         <v>43143</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1314,7 +1290,7 @@
         <v>43143</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1471,47 +1447,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="65" priority="69">
+    <cfRule type="expression" dxfId="62" priority="78">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="70">
+    <cfRule type="expression" dxfId="61" priority="79">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="71">
+    <cfRule type="expression" dxfId="60" priority="80">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="59" priority="72" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="58" priority="70" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="57" priority="71" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12 D7:D8">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="56" priority="68" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="55" priority="67" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="54" priority="90" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1523,185 +1499,185 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="52" priority="64">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="51" priority="65">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="50" priority="66">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" dxfId="46" priority="57">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="45" priority="58">
       <formula>UPPER(F12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="47" priority="44">
+    <cfRule type="expression" dxfId="44" priority="53">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
+    <cfRule type="expression" dxfId="43" priority="54">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="42" priority="55">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="41" priority="52" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>UPPER(F14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>UPPER(F14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>UPPER(F14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="niedrig">
+      <formula>NOT(ISERROR(SEARCH("niedrig",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="mittel">
+      <formula>NOT(ISERROR(SEARCH("mittel",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="niedrig">
+      <formula>NOT(ISERROR(SEARCH("niedrig",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="mittel">
+      <formula>NOT(ISERROR(SEARCH("mittel",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="18" priority="16">
+      <formula>UPPER(F15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>UPPER(F15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>UPPER(F15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>UPPER(F16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>UPPER(F16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>UPPER(F16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>UPPER(F7)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>UPPER(F7)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>UPPER(F7)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="42" priority="39">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>UPPER(F8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>UPPER(F7)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>UPPER(F7)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>UPPER(F7)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="28" priority="20">
-      <formula>UPPER(F14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>UPPER(F14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>UPPER(F14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>UPPER(F15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>UPPER(F15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>UPPER(F15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>UPPER(F16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>UPPER(F16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>UPPER(F16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\Jugend Forscht [PRIVATE]\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Aufgaben!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Projektname</t>
   </si>
@@ -135,16 +130,19 @@
   </si>
   <si>
     <t>Code in PP -&gt; Pseudocode</t>
+  </si>
+  <si>
+    <t>vermutlich nicht nötig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -359,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="60 % - Akzent2" xfId="8" builtinId="36"/>
+    <cellStyle name="60% - Akzent2" xfId="8" builtinId="36"/>
     <cellStyle name="Gut" xfId="6" builtinId="26"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -369,7 +367,7 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="73">
     <dxf>
       <fill>
         <patternFill>
@@ -392,7 +390,28 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -404,13 +423,12 @@
         <sz val="11"/>
         <color theme="1" tint="0.249977111117893"/>
         <name val="Tahoma"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -421,16 +439,15 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Tahoma"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -509,6 +526,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -870,11 +908,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="66"/>
-      <tableStyleElement type="headerRow" dxfId="65"/>
-      <tableStyleElement type="totalRow" dxfId="64"/>
-      <tableStyleElement type="firstColumn" dxfId="63"/>
+    <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="72"/>
+      <tableStyleElement type="headerRow" dxfId="71"/>
+      <tableStyleElement type="totalRow" dxfId="70"/>
+      <tableStyleElement type="firstColumn" dxfId="69"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -894,18 +932,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B6:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="B6:G16"/>
   <sortState ref="B7:G16">
     <sortCondition descending="1" ref="F6:F16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="3"/>
+    <tableColumn id="1" name="Aufgaben" dataDxfId="11"/>
+    <tableColumn id="2" name="Zuständiger" dataDxfId="10"/>
+    <tableColumn id="3" name="Priorität" dataDxfId="9"/>
+    <tableColumn id="4" name="Zieldatum" dataDxfId="8"/>
+    <tableColumn id="5" name="Status" dataDxfId="7"/>
+    <tableColumn id="6" name="Notizen" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -959,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Theme FontsGroup Project List">
       <a:majorFont>
-        <a:latin typeface="Tahoma" panose="020F0302020204030204"/>
+        <a:latin typeface="Tahoma"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,7 +1032,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Tahoma" panose="020F0502020204030204"/>
+        <a:latin typeface="Tahoma"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,25 +1209,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
@@ -1200,16 +1238,16 @@
     <col min="7" max="7" width="44.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="17.25" customHeight="1">
       <c r="E2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1260,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1235,11 +1273,11 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="15">
       <c r="E5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="27" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="31.5" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="31.5" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1292,8 +1330,11 @@
       <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="31.5" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1307,13 +1348,13 @@
         <v>43125</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="31.5" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1333,7 +1374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="31.5" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1351,7 +1392,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="31.5" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="31.5" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="31.5" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1411,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="31.5" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="31.5" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1447,51 +1488,51 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="62" priority="78">
+    <cfRule type="expression" dxfId="68" priority="81">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="79">
+    <cfRule type="expression" dxfId="67" priority="82">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80">
+    <cfRule type="expression" dxfId="66" priority="83">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="59" priority="72" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="65" priority="75" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="58" priority="70" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="64" priority="73" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="71" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="63" priority="74" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12 D7:D8">
-    <cfRule type="containsText" dxfId="56" priority="68" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="55" priority="67" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="61" priority="70" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="54" priority="90" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="60" priority="93" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="59" priority="94" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1499,185 +1540,196 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="52" priority="64">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="65">
+    <cfRule type="expression" dxfId="57" priority="68">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="66">
+    <cfRule type="expression" dxfId="56" priority="69">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="49" priority="59" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="60" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="47" priority="56">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="57">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="58">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>UPPER(F12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="44" priority="53">
+    <cfRule type="expression" dxfId="50" priority="56">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="54">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="55">
+    <cfRule type="expression" dxfId="48" priority="58">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="41" priority="52" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="40" priority="51" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="46" priority="54" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>UPPER(F14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>UPPER(F14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>UPPER(F14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="niedrig">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="niedrig">
       <formula>NOT(ISERROR(SEARCH("niedrig",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>UPPER(F15)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>UPPER(F15)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>UPPER(F15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>UPPER(F16)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>UPPER(F16)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>UPPER(F16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>UPPER(F7)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>UPPER(F7)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>UPPER(F7)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>UPPER(F8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>UPPER(F9)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>UPPER(F9)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\Jugend Forscht [PRIVATE]\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15495"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Aufgaben!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Projektname</t>
   </si>
@@ -63,9 +68,6 @@
     <t>hoch</t>
   </si>
   <si>
-    <t>niedrig</t>
-  </si>
-  <si>
     <t>Optimierung des Codes</t>
   </si>
   <si>
@@ -96,9 +98,6 @@
     <t>zusammen</t>
   </si>
   <si>
-    <t>in Bearbeitung</t>
-  </si>
-  <si>
     <t>-&gt; Überlegen, welche Fragen gestellt werden könnten</t>
   </si>
   <si>
@@ -114,9 +113,6 @@
     <t>Standdesign und Ablaufplanung</t>
   </si>
   <si>
-    <t>mittel</t>
-  </si>
-  <si>
     <t>-&gt; Im Druck</t>
   </si>
   <si>
@@ -132,17 +128,32 @@
     <t>Code in PP -&gt; Pseudocode</t>
   </si>
   <si>
-    <t>vermutlich nicht nötig</t>
+    <t>Vollständiger Ablauf-Check</t>
+  </si>
+  <si>
+    <t>Monitor testen</t>
+  </si>
+  <si>
+    <t>nicht begonnen</t>
+  </si>
+  <si>
+    <t>-&gt; nur wenn nötig</t>
+  </si>
+  <si>
+    <t>Alles aufladen</t>
+  </si>
+  <si>
+    <t>Roboter final testen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14993743705557422"/>
@@ -195,13 +206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -221,8 +225,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,11 +267,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
@@ -255,6 +274,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,7 +314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,10 +324,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,35 +361,42 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="60% - Akzent2" xfId="8" builtinId="36"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27"/>
+  <cellStyles count="10">
+    <cellStyle name="60 % - Akzent2" xfId="7" builtinId="36"/>
+    <cellStyle name="Akzent1" xfId="9" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="6" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -367,51 +404,29 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="131">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Tahoma"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -425,29 +440,440 @@
         <name val="Tahoma"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -547,6 +973,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C5700"/>
       </font>
@@ -908,11 +1355,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="72"/>
-      <tableStyleElement type="headerRow" dxfId="71"/>
-      <tableStyleElement type="totalRow" dxfId="70"/>
-      <tableStyleElement type="firstColumn" dxfId="69"/>
+    <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="130"/>
+      <tableStyleElement type="headerRow" dxfId="129"/>
+      <tableStyleElement type="totalRow" dxfId="128"/>
+      <tableStyleElement type="firstColumn" dxfId="127"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -932,18 +1379,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="B6:G16"/>
-  <sortState ref="B7:G16">
-    <sortCondition descending="1" ref="F6:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="67">
+  <autoFilter ref="B6:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B7:G20">
+    <sortCondition descending="1" ref="D6:D20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Aufgaben" dataDxfId="11"/>
-    <tableColumn id="2" name="Zuständiger" dataDxfId="10"/>
-    <tableColumn id="3" name="Priorität" dataDxfId="9"/>
-    <tableColumn id="4" name="Zieldatum" dataDxfId="8"/>
-    <tableColumn id="5" name="Status" dataDxfId="7"/>
-    <tableColumn id="6" name="Notizen" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1209,50 +1656,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="44.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="17.25" customHeight="1">
+    <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="2:7" ht="18.75" customHeight="1">
+    <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
@@ -1260,7 +1707,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1">
+    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1273,16 +1720,16 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="2:7" ht="15">
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="E5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:7" ht="27" customHeight="1">
+    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>2</v>
@@ -1297,439 +1744,636 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="31.5" customHeight="1">
+    <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43153</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43143</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1">
+    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18">
+        <v>43153</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18">
+        <v>43153</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="18">
+        <v>43153</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18">
+        <v>43153</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18">
+        <v>43143</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="18">
+        <v>43125</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="18">
+        <v>43154</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="18">
+        <v>43133</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
-        <v>43143</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18">
+        <v>43130</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="19">
+        <v>43129</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="9" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="18" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2">
-        <v>43125</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
+      <c r="D18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="18">
+        <v>43114</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43154</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>25</v>
+    <row r="19" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="18">
+        <v>43116</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>43133</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>43130</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12">
-        <v>43129</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="14" t="s">
+    <row r="20" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2">
-        <v>43114</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2">
-        <v>43116</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="31.5" customHeight="1">
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="18">
         <v>43138</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>19</v>
+      <c r="F20" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="68" priority="81">
+    <cfRule type="expression" dxfId="126" priority="140">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="82">
+    <cfRule type="expression" dxfId="125" priority="141">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="83">
+    <cfRule type="expression" dxfId="124" priority="142">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="65" priority="75" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="64" priority="73" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="122" priority="132" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="74" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="121" priority="133" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D12 D7:D8">
-    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="mittel">
+  <conditionalFormatting sqref="D10:D11 D7:D8">
+    <cfRule type="containsText" dxfId="120" priority="130" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="61" priority="70" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="119" priority="129" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="60" priority="93" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="118" priority="152" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="94" operator="containsText" text="hoch">
+    <cfRule type="containsText" dxfId="117" priority="153" operator="containsText" text="hoch">
       <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="111" priority="118">
+      <formula>UPPER(F12)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="119">
+      <formula>UPPER(F12)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="120">
+      <formula>UPPER(F12)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="108" priority="115">
+      <formula>UPPER(F10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="116">
+      <formula>UPPER(F10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="117">
+      <formula>UPPER(F10)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="101" priority="98" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="99" priority="96" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="97" priority="94" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="95" priority="91">
+      <formula>UPPER(F14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="92">
+      <formula>UPPER(F14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="93">
+      <formula>UPPER(F14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="92" priority="89" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="88" priority="85" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="82" priority="78">
+      <formula>UPPER(F15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="79">
+      <formula>UPPER(F15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="80">
+      <formula>UPPER(F15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="79" priority="72">
+      <formula>UPPER(F16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="73">
+      <formula>UPPER(F16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="74">
+      <formula>UPPER(F16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="76" priority="66">
+      <formula>UPPER(F7)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="67">
+      <formula>UPPER(F7)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="68">
+      <formula>UPPER(F7)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="73" priority="63">
+      <formula>UPPER(F8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="64">
+      <formula>UPPER(F8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="65">
+      <formula>UPPER(F8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="64" priority="58" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="62" priority="56" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="58" priority="67">
+    <cfRule type="expression" dxfId="56" priority="49">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="68">
+    <cfRule type="expression" dxfId="55" priority="50">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="69">
+    <cfRule type="expression" dxfId="54" priority="51">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="53" priority="59">
-      <formula>UPPER(F12)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60">
-      <formula>UPPER(F12)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>UPPER(F12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="50" priority="56">
-      <formula>UPPER(F10)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="57">
-      <formula>UPPER(F10)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="58">
-      <formula>UPPER(F10)="erledigt"</formula>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="48" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="47" priority="40">
+      <formula>UPPER(F19)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="41">
+      <formula>UPPER(F19)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="42">
+      <formula>UPPER(F19)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="44" priority="37">
+      <formula>UPPER(F20)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="38">
+      <formula>UPPER(F20)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="39">
+      <formula>UPPER(F20)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>UPPER(F17)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="35">
+      <formula>UPPER(F17)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="36">
+      <formula>UPPER(F17)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="38" priority="31">
+      <formula>UPPER(F18)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="32">
+      <formula>UPPER(F18)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="33">
+      <formula>UPPER(F18)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="35" priority="28">
+      <formula>UPPER(D12)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="29">
+      <formula>UPPER(D12)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="30">
+      <formula>UPPER(D12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="46" priority="54" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="37" priority="32">
-      <formula>UPPER(F14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
-      <formula>UPPER(F14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34">
-      <formula>UPPER(F14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    <cfRule type="expression" dxfId="32" priority="25">
+      <formula>UPPER(D13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="26">
+      <formula>UPPER(D13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>UPPER(D13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="29" priority="22">
+      <formula>UPPER(D14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>UPPER(D14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="24">
+      <formula>UPPER(D14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D15)))</formula>
+    <cfRule type="expression" dxfId="26" priority="19">
+      <formula>UPPER(D15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="20">
+      <formula>UPPER(D15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="21">
+      <formula>UPPER(D15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="24" priority="19">
-      <formula>UPPER(F15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="20">
-      <formula>UPPER(F15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>UPPER(F15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="21" priority="13">
-      <formula>UPPER(F16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="14">
-      <formula>UPPER(F16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="15">
-      <formula>UPPER(F16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="18" priority="7">
-      <formula>UPPER(F7)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="8">
-      <formula>UPPER(F7)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9">
-      <formula>UPPER(F7)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>UPPER(F8)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>UPPER(F8)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
-      <formula>UPPER(F8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>UPPER(F9)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>UPPER(F9)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>UPPER(F9)="erledigt"</formula>
+    <cfRule type="expression" dxfId="23" priority="16">
+      <formula>UPPER(D16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17">
+      <formula>UPPER(D16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>UPPER(D16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="17" priority="10">
+      <formula>UPPER(D17)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>UPPER(D17)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>UPPER(D17)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>UPPER(D18)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="8">
+      <formula>UPPER(D18)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="9">
+      <formula>UPPER(D18)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>UPPER(D19)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>UPPER(D19)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>UPPER(D19)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>UPPER(D20)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>UPPER(D20)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>UPPER(D20)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -404,29 +404,114 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="122">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -443,437 +528,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Tahoma"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -994,42 +669,170 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1056,6 +859,27 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1067,27 +891,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1099,6 +902,90 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1132,47 +1019,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
@@ -1205,67 +1051,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1278,13 +1063,129 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1356,10 +1257,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="130"/>
-      <tableStyleElement type="headerRow" dxfId="129"/>
-      <tableStyleElement type="totalRow" dxfId="128"/>
-      <tableStyleElement type="firstColumn" dxfId="127"/>
+      <tableStyleElement type="wholeTable" dxfId="121"/>
+      <tableStyleElement type="headerRow" dxfId="120"/>
+      <tableStyleElement type="totalRow" dxfId="119"/>
+      <tableStyleElement type="firstColumn" dxfId="118"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1379,18 +1280,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B6:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:G20">
     <sortCondition descending="1" ref="D6:D20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1670,8 +1571,8 @@
   </sheetPr>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1664,7 @@
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>22</v>
@@ -1780,56 +1681,56 @@
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="18">
         <v>43153</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>35</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>14</v>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="18">
         <v>43153</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>35</v>
+      <c r="F10" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>12</v>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="18">
         <v>43153</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>36</v>
+      <c r="F11" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2003,377 +1904,387 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="126" priority="140">
+    <cfRule type="expression" dxfId="117" priority="155">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="141">
+    <cfRule type="expression" dxfId="116" priority="156">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="142">
+    <cfRule type="expression" dxfId="115" priority="157">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="122" priority="132" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="114" priority="147" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="133" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="113" priority="148" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11 D7:D8">
-    <cfRule type="containsText" dxfId="120" priority="130" operator="containsText" text="mittel">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="112" priority="145" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="108" priority="136" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="137" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="106" priority="133">
+      <formula>UPPER(F12)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="134">
+      <formula>UPPER(F12)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="135">
+      <formula>UPPER(F12)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="100" priority="117" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="118" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="98" priority="113" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="114" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="96" priority="111" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="94" priority="109" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="110" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="92" priority="106">
+      <formula>UPPER(F14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="107">
+      <formula>UPPER(F14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="108">
+      <formula>UPPER(F14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="89" priority="104" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="87" priority="102" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="85" priority="100" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="101" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="83" priority="93">
+      <formula>UPPER(F15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="94">
+      <formula>UPPER(F15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="95">
+      <formula>UPPER(F15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="80" priority="87">
+      <formula>UPPER(F16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="88">
+      <formula>UPPER(F16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="89">
+      <formula>UPPER(F16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="77" priority="81">
+      <formula>UPPER(F7)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="82">
+      <formula>UPPER(F7)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="83">
+      <formula>UPPER(F7)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="67" priority="64">
+      <formula>UPPER(F9)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="65">
+      <formula>UPPER(F9)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="66">
+      <formula>UPPER(F9)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="60" priority="55">
+      <formula>UPPER(F19)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="56">
+      <formula>UPPER(F19)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="57">
+      <formula>UPPER(F19)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="57" priority="52">
+      <formula>UPPER(F20)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="53">
+      <formula>UPPER(F20)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="54">
+      <formula>UPPER(F20)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="54" priority="49">
+      <formula>UPPER(F17)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="50">
+      <formula>UPPER(F17)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="51">
+      <formula>UPPER(F17)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="51" priority="46">
+      <formula>UPPER(F18)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="47">
+      <formula>UPPER(F18)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="48">
+      <formula>UPPER(F18)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="48" priority="43">
+      <formula>UPPER(D12)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="44">
+      <formula>UPPER(D12)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="45">
+      <formula>UPPER(D12)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="45" priority="40">
+      <formula>UPPER(D13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="41">
+      <formula>UPPER(D13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="42">
+      <formula>UPPER(D13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="42" priority="37">
+      <formula>UPPER(D14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="38">
+      <formula>UPPER(D14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="39">
+      <formula>UPPER(D14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="39" priority="34">
+      <formula>UPPER(D15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="35">
+      <formula>UPPER(D15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="36">
+      <formula>UPPER(D15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="36" priority="31">
+      <formula>UPPER(D16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="32">
+      <formula>UPPER(D16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="33">
+      <formula>UPPER(D16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="33" priority="25">
+      <formula>UPPER(D17)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="26">
+      <formula>UPPER(D17)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="27">
+      <formula>UPPER(D17)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="30" priority="22">
+      <formula>UPPER(D18)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="23">
+      <formula>UPPER(D18)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>UPPER(D18)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>UPPER(D19)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="20">
+      <formula>UPPER(D19)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>UPPER(D19)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>UPPER(D20)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>UPPER(D20)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>UPPER(D20)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>UPPER(D10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>UPPER(D10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>UPPER(D10)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>UPPER(F10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>UPPER(F10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>UPPER(F10)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="119" priority="129" operator="containsText" text="hoch">
-      <formula>NOT(ISERROR(SEARCH("hoch",D8)))</formula>
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>UPPER(D8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>UPPER(D8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>UPPER(D8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>UPPER(F8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>UPPER(F8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>UPPER(F8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="118" priority="152" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="153" operator="containsText" text="hoch">
-      <formula>NOT(ISERROR(SEARCH("hoch",D11)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="113" priority="121" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="122" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="111" priority="118">
-      <formula>UPPER(F12)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="119">
-      <formula>UPPER(F12)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="120">
-      <formula>UPPER(F12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="108" priority="115">
-      <formula>UPPER(F10)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="116">
-      <formula>UPPER(F10)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="117">
-      <formula>UPPER(F10)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="103" priority="102" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="101" priority="98" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="99" priority="96" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="97" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="97" priority="94" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="95" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="95" priority="91">
-      <formula>UPPER(F14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92">
-      <formula>UPPER(F14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93">
-      <formula>UPPER(F14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="92" priority="89" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="90" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="90" priority="87" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="88" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="88" priority="85" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="82" priority="78">
-      <formula>UPPER(F15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="79">
-      <formula>UPPER(F15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="80">
-      <formula>UPPER(F15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="79" priority="72">
-      <formula>UPPER(F16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="73">
-      <formula>UPPER(F16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="74">
-      <formula>UPPER(F16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="76" priority="66">
-      <formula>UPPER(F7)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="67">
-      <formula>UPPER(F7)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="68">
-      <formula>UPPER(F7)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="73" priority="63">
-      <formula>UPPER(F8)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="64">
-      <formula>UPPER(F8)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="65">
-      <formula>UPPER(F8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="64" priority="58" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="59" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="62" priority="56" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="56" priority="49">
-      <formula>UPPER(F9)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="50">
-      <formula>UPPER(F9)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51">
-      <formula>UPPER(F9)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="48" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="47" priority="40">
-      <formula>UPPER(F19)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41">
-      <formula>UPPER(F19)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42">
-      <formula>UPPER(F19)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="44" priority="37">
-      <formula>UPPER(F20)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38">
-      <formula>UPPER(F20)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>UPPER(F20)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="41" priority="34">
-      <formula>UPPER(F17)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35">
-      <formula>UPPER(F17)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36">
-      <formula>UPPER(F17)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="38" priority="31">
-      <formula>UPPER(F18)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32">
-      <formula>UPPER(F18)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="33">
-      <formula>UPPER(F18)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="35" priority="28">
-      <formula>UPPER(D12)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29">
-      <formula>UPPER(D12)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30">
-      <formula>UPPER(D12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="32" priority="25">
-      <formula>UPPER(D13)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26">
-      <formula>UPPER(D13)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
-      <formula>UPPER(D13)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="29" priority="22">
-      <formula>UPPER(D14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23">
-      <formula>UPPER(D14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24">
-      <formula>UPPER(D14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="26" priority="19">
-      <formula>UPPER(D15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
-      <formula>UPPER(D15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21">
-      <formula>UPPER(D15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="23" priority="16">
-      <formula>UPPER(D16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17">
-      <formula>UPPER(D16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18">
-      <formula>UPPER(D16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="17" priority="10">
-      <formula>UPPER(D17)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>UPPER(D17)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>UPPER(D17)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="14" priority="7">
-      <formula>UPPER(D18)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>UPPER(D18)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>UPPER(D18)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>UPPER(D19)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>UPPER(D19)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>UPPER(D19)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>UPPER(D20)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>UPPER(D20)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>UPPER(D20)="erledigt"</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>UPPER(D11)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>UPPER(D11)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>UPPER(D11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Projektname</t>
   </si>
@@ -56,21 +56,6 @@
     <t>Vincent Schmandt &amp; Fabian Specht</t>
   </si>
   <si>
-    <t>PowerPoint Präsentation</t>
-  </si>
-  <si>
-    <t>PowerPoint Besucher</t>
-  </si>
-  <si>
-    <t>Ablauf Präsentation</t>
-  </si>
-  <si>
-    <t>hoch</t>
-  </si>
-  <si>
-    <t>Optimierung des Codes</t>
-  </si>
-  <si>
     <t>sehr hoch</t>
   </si>
   <si>
@@ -83,67 +68,49 @@
     <t>Zuständiger</t>
   </si>
   <si>
-    <t>erledigt</t>
-  </si>
-  <si>
-    <t>Plakate erstellen</t>
-  </si>
-  <si>
     <t>Projektleitung</t>
   </si>
   <si>
-    <t>Fragen vorbereiten</t>
-  </si>
-  <si>
-    <t>zusammen</t>
-  </si>
-  <si>
-    <t>-&gt; Überlegen, welche Fragen gestellt werden könnten</t>
-  </si>
-  <si>
-    <t>-&gt; Grundlegendes Design für Plakate usw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-&gt; Kommentare &amp; IF-Abfragen hinzufügen </t>
-  </si>
-  <si>
-    <t>-&gt; Java-Video fehlt</t>
-  </si>
-  <si>
-    <t>Standdesign und Ablaufplanung</t>
-  </si>
-  <si>
-    <t>-&gt; Im Druck</t>
-  </si>
-  <si>
-    <t>Vortrag üben</t>
-  </si>
-  <si>
     <t>Aufgabenliste</t>
   </si>
   <si>
-    <t>Karteikarten erstellen</t>
-  </si>
-  <si>
-    <t>Code in PP -&gt; Pseudocode</t>
-  </si>
-  <si>
-    <t>Vollständiger Ablauf-Check</t>
-  </si>
-  <si>
-    <t>Monitor testen</t>
-  </si>
-  <si>
-    <t>nicht begonnen</t>
-  </si>
-  <si>
-    <t>-&gt; nur wenn nötig</t>
-  </si>
-  <si>
-    <t>Alles aufladen</t>
-  </si>
-  <si>
-    <t>Roboter final testen</t>
+    <t>Hr. Ossmann -&gt; Geld</t>
+  </si>
+  <si>
+    <t>beide</t>
+  </si>
+  <si>
+    <t>nicht Begonnen</t>
+  </si>
+  <si>
+    <t>Hr. Kagels -&gt; Motoren</t>
+  </si>
+  <si>
+    <t>Sprachsteuerung erweitern</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>-&gt; Ideen sammeln</t>
+  </si>
+  <si>
+    <t>Stopp/minDist testen/fixen</t>
+  </si>
+  <si>
+    <t>Probleme bei init testen/fixen</t>
+  </si>
+  <si>
+    <t>Schnellere Verbindungen -&gt; nur noch Wlan/BT? / Wlan integrieren ( via. zB. Repeater )?</t>
+  </si>
+  <si>
+    <t>-&gt; testen ob nötig</t>
+  </si>
+  <si>
+    <t>Touchscreen ( via. Pi ) in Roboter einbauen</t>
+  </si>
+  <si>
+    <t>niedrig</t>
   </si>
 </sst>
 </file>
@@ -153,17 +120,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.14993743705557422"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,13 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
       <name val="Tahoma"/>
@@ -234,19 +187,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,18 +219,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -314,25 +255,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -341,61 +281,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="60 % - Akzent2" xfId="7" builtinId="36"/>
-    <cellStyle name="Akzent1" xfId="9" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28"/>
+  <cellStyles count="9">
+    <cellStyle name="Gut" xfId="8" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="6" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -404,151 +334,164 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="122">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="130">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Tahoma"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -837,6 +780,111 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -965,27 +1013,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1105,27 +1132,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1135,36 +1141,6 @@
         <strike val="0"/>
         <color theme="4"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1257,10 +1233,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="121"/>
-      <tableStyleElement type="headerRow" dxfId="120"/>
-      <tableStyleElement type="totalRow" dxfId="119"/>
-      <tableStyleElement type="firstColumn" dxfId="118"/>
+      <tableStyleElement type="wholeTable" dxfId="129"/>
+      <tableStyleElement type="headerRow" dxfId="128"/>
+      <tableStyleElement type="totalRow" dxfId="127"/>
+      <tableStyleElement type="firstColumn" dxfId="126"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1280,18 +1256,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="23" dataCellStyle="Standard">
   <autoFilter ref="B6:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:G20">
     <sortCondition descending="1" ref="D6:D20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataCellStyle="Standard"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Zuständiger" dataCellStyle="Standard"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priorität" dataCellStyle="Standard"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Zieldatum" dataCellStyle="Standard"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataCellStyle="Standard"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notizen" dataCellStyle="Standard"/>
   </tableColumns>
   <tableStyleInfo name="Liste &quot;Gruppenprojekt&quot;" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1571,8 +1547,8 @@
   </sheetPr>
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1588,7 +1564,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
@@ -1617,7 +1593,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
-        <v>43151</v>
+        <v>43177</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1630,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>2</v>
@@ -1646,645 +1622,546 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="18">
-        <v>43153</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="18">
-        <v>43153</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13">
+        <v>43185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8"/>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18">
-        <v>43153</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>35</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13">
+        <v>43174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="18">
-        <v>43153</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13">
+        <v>43160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18">
-        <v>43153</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="18">
-        <v>43143</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>18</v>
+    <row r="12" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="18">
-        <v>43125</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="13">
+        <v>43174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="18">
-        <v>43154</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="E14"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="18">
-        <v>43133</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="18">
-        <v>43130</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="E16"/>
+      <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19">
-        <v>43129</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="18">
-        <v>43114</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>25</v>
-      </c>
+    <row r="18" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18"/>
+      <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="18">
-        <v>43116</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>18</v>
-      </c>
+    <row r="19" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19"/>
+      <c r="G19"/>
     </row>
-    <row r="20" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="18">
-        <v>43138</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>18</v>
-      </c>
+    <row r="20" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20"/>
+      <c r="G20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F13 F11">
-    <cfRule type="expression" dxfId="117" priority="155">
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="containsText" dxfId="122" priority="170" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="171" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="120" priority="168" operator="containsText" text="mittel">
+      <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="114" priority="140" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="141" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="112" priority="136" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="137" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="110" priority="134" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="135" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="108" priority="132" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="133" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="106" priority="129">
+      <formula>UPPER(F14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="130">
+      <formula>UPPER(F14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="131">
+      <formula>UPPER(F14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="103" priority="127" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="128" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="101" priority="125" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="126" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="124" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="97" priority="116">
+      <formula>UPPER(F15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="117">
+      <formula>UPPER(F15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="118">
+      <formula>UPPER(F15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="94" priority="110">
+      <formula>UPPER(F16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="111">
+      <formula>UPPER(F16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="112">
+      <formula>UPPER(F16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="91" priority="104">
+      <formula>UPPER(F7)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="105">
+      <formula>UPPER(F7)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="106">
+      <formula>UPPER(F7)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="97" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="95" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="77" priority="78">
+      <formula>UPPER(F19)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="79">
+      <formula>UPPER(F19)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="80">
+      <formula>UPPER(F19)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="74" priority="75">
+      <formula>UPPER(F20)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="76">
+      <formula>UPPER(F20)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="77">
+      <formula>UPPER(F20)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>UPPER(F17)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="73">
+      <formula>UPPER(F17)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="74">
+      <formula>UPPER(F17)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>UPPER(F18)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="70">
+      <formula>UPPER(F18)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="71">
+      <formula>UPPER(F18)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="62" priority="63">
+      <formula>UPPER(D13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="64">
+      <formula>UPPER(D13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="65">
+      <formula>UPPER(D13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="59" priority="60">
+      <formula>UPPER(D14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="61">
+      <formula>UPPER(D14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="62">
+      <formula>UPPER(D14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="56" priority="57">
+      <formula>UPPER(D15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="58">
+      <formula>UPPER(D15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="59">
+      <formula>UPPER(D15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="53" priority="54">
+      <formula>UPPER(D16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="55">
+      <formula>UPPER(D16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="56">
+      <formula>UPPER(D16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="50" priority="48">
+      <formula>UPPER(D17)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>UPPER(D17)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>UPPER(D17)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="47" priority="45">
+      <formula>UPPER(D18)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>UPPER(D18)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>UPPER(D18)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="44" priority="42">
+      <formula>UPPER(D19)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>UPPER(D19)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>UPPER(D19)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="41" priority="39">
+      <formula>UPPER(D20)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>UPPER(D20)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>UPPER(D20)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="38" priority="36">
+      <formula>UPPER(D10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>UPPER(D10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>UPPER(D10)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>UPPER(D8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>UPPER(D8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>UPPER(D8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>UPPER(F8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>UPPER(F8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>UPPER(F8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>UPPER(F9)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>UPPER(F9)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>UPPER(F9)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>UPPER(F10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>UPPER(F10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>UPPER(F10)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>UPPER(D11)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>UPPER(D11)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>UPPER(D11)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="156">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="157">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="114" priority="147" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="148" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="112" priority="145" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="108" priority="136" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="137" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="106" priority="133">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="134">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="135">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>UPPER(F12)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="100" priority="117" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="118" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="98" priority="113" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="114" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="96" priority="111" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="94" priority="109" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="110" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="92" priority="106">
-      <formula>UPPER(F14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="107">
-      <formula>UPPER(F14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="108">
-      <formula>UPPER(F14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="89" priority="104" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="87" priority="102" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="85" priority="100" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="101" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="83" priority="93">
-      <formula>UPPER(F15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="94">
-      <formula>UPPER(F15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95">
-      <formula>UPPER(F15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="80" priority="87">
-      <formula>UPPER(F16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="88">
-      <formula>UPPER(F16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="89">
-      <formula>UPPER(F16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="77" priority="81">
-      <formula>UPPER(F7)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="82">
-      <formula>UPPER(F7)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="83">
-      <formula>UPPER(F7)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="67" priority="64">
-      <formula>UPPER(F9)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="65">
-      <formula>UPPER(F9)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="66">
-      <formula>UPPER(F9)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="60" priority="55">
-      <formula>UPPER(F19)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="56">
-      <formula>UPPER(F19)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="57">
-      <formula>UPPER(F19)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="57" priority="52">
-      <formula>UPPER(F20)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="53">
-      <formula>UPPER(F20)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="54">
-      <formula>UPPER(F20)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="54" priority="49">
-      <formula>UPPER(F17)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="50">
-      <formula>UPPER(F17)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="51">
-      <formula>UPPER(F17)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="51" priority="46">
-      <formula>UPPER(F18)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="47">
-      <formula>UPPER(F18)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="48">
-      <formula>UPPER(F18)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="48" priority="43">
-      <formula>UPPER(D12)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="44">
-      <formula>UPPER(D12)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45">
-      <formula>UPPER(D12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="45" priority="40">
-      <formula>UPPER(D13)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="41">
-      <formula>UPPER(D13)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42">
-      <formula>UPPER(D13)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="42" priority="37">
-      <formula>UPPER(D14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="38">
-      <formula>UPPER(D14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="39">
-      <formula>UPPER(D14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="39" priority="34">
-      <formula>UPPER(D15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
-      <formula>UPPER(D15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>UPPER(D15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="36" priority="31">
-      <formula>UPPER(D16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="32">
-      <formula>UPPER(D16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>UPPER(D16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="33" priority="25">
-      <formula>UPPER(D17)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26">
-      <formula>UPPER(D17)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="27">
-      <formula>UPPER(D17)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="30" priority="22">
-      <formula>UPPER(D18)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="23">
-      <formula>UPPER(D18)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>UPPER(D18)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="27" priority="19">
-      <formula>UPPER(D19)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="20">
-      <formula>UPPER(D19)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="21">
-      <formula>UPPER(D19)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="24" priority="16">
-      <formula>UPPER(D20)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>UPPER(D20)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>UPPER(D20)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>UPPER(D10)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>UPPER(D10)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>UPPER(D10)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>UPPER(F10)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>UPPER(F10)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>UPPER(F10)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>UPPER(D8)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>UPPER(D8)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>UPPER(D8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>UPPER(F8)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>UPPER(F8)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>UPPER(F8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>UPPER(D11)="nicht begonnen"</formula>
+      <formula>UPPER(F13)="nicht begonnen"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>UPPER(D11)="in Bearbeitung"</formula>
+      <formula>UPPER(F13)="in Bearbeitung"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>UPPER(D11)="erledigt"</formula>
+      <formula>UPPER(F13)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Projektname</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Aufgabenliste</t>
   </si>
   <si>
-    <t>Hr. Ossmann -&gt; Geld</t>
-  </si>
-  <si>
     <t>beide</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t>-&gt; Ideen sammeln</t>
   </si>
   <si>
-    <t>Stopp/minDist testen/fixen</t>
-  </si>
-  <si>
-    <t>Probleme bei init testen/fixen</t>
-  </si>
-  <si>
     <t>Schnellere Verbindungen -&gt; nur noch Wlan/BT? / Wlan integrieren ( via. zB. Repeater )?</t>
   </si>
   <si>
@@ -111,6 +102,9 @@
   </si>
   <si>
     <t>niedrig</t>
+  </si>
+  <si>
+    <t>in Bearbeitung</t>
   </si>
 </sst>
 </file>
@@ -334,120 +328,36 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7BD80"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7BD80"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9797E"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9797E"/>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -549,342 +459,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -896,6 +470,405 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -907,27 +880,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -950,69 +902,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1024,6 +913,69 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1046,27 +998,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1078,6 +1009,27 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1111,27 +1063,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1162,27 +1093,6 @@
         <strike val="0"/>
         <color theme="4"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1233,10 +1143,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="129"/>
-      <tableStyleElement type="headerRow" dxfId="128"/>
-      <tableStyleElement type="totalRow" dxfId="127"/>
-      <tableStyleElement type="firstColumn" dxfId="126"/>
+      <tableStyleElement type="wholeTable" dxfId="116"/>
+      <tableStyleElement type="headerRow" dxfId="115"/>
+      <tableStyleElement type="totalRow" dxfId="114"/>
+      <tableStyleElement type="firstColumn" dxfId="113"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1256,10 +1166,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="23" dataCellStyle="Standard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="10" dataCellStyle="Standard">
   <autoFilter ref="B6:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:G20">
-    <sortCondition descending="1" ref="D6:D20"/>
+    <sortCondition sortBy="cellColor" ref="F6:F20" dxfId="1"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataCellStyle="Standard"/>
@@ -1548,7 +1458,7 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1472,7 @@
     <col min="7" max="7" width="44.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1494,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1623,132 +1533,90 @@
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43174</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13">
-        <v>43185</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7"/>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>18</v>
+    <row r="8" spans="2:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="13">
-        <v>43185</v>
+        <v>43160</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>20</v>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="13">
         <v>43174</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="13">
-        <v>43160</v>
+        <v>43185</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13">
-        <v>43160</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12"/>
+      <c r="E11"/>
+      <c r="G11"/>
     </row>
-    <row r="12" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13">
-        <v>43160</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12"/>
+      <c r="G12"/>
     </row>
-    <row r="13" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="13">
-        <v>43174</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
+    <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,387 +1649,387 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="122" priority="170" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="171" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="111" priority="177" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="120" priority="168" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="110" priority="174" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="114" priority="140" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="109" priority="146" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="141" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="108" priority="147" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="112" priority="136" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="107" priority="142" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="137" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="106" priority="143" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="110" priority="134" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="105" priority="140" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="135" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="104" priority="141" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="108" priority="132" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="103" priority="138" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="133" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="102" priority="139" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="106" priority="129">
+    <cfRule type="expression" dxfId="101" priority="135">
       <formula>UPPER(F14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="130">
+    <cfRule type="expression" dxfId="100" priority="136">
       <formula>UPPER(F14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="131">
+    <cfRule type="expression" dxfId="99" priority="137">
       <formula>UPPER(F14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="103" priority="127" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="98" priority="133" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="128" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="97" priority="134" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="101" priority="125" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="96" priority="131" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="126" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="95" priority="132" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="99" priority="123" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="94" priority="129" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="124" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="93" priority="130" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="97" priority="116">
+    <cfRule type="expression" dxfId="92" priority="122">
       <formula>UPPER(F15)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="117">
+    <cfRule type="expression" dxfId="91" priority="123">
       <formula>UPPER(F15)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="118">
+    <cfRule type="expression" dxfId="90" priority="124">
       <formula>UPPER(F15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="94" priority="110">
+    <cfRule type="expression" dxfId="89" priority="116">
       <formula>UPPER(F16)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="111">
+    <cfRule type="expression" dxfId="88" priority="117">
       <formula>UPPER(F16)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="112">
+    <cfRule type="expression" dxfId="87" priority="118">
       <formula>UPPER(F16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="91" priority="104">
+    <cfRule type="expression" dxfId="86" priority="110">
       <formula>UPPER(F7)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="105">
+    <cfRule type="expression" dxfId="85" priority="111">
       <formula>UPPER(F7)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="106">
+    <cfRule type="expression" dxfId="84" priority="112">
       <formula>UPPER(F7)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="83" priority="102" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="97" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="82" priority="103" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="81" priority="100" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="95" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="80" priority="101" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="79" priority="91" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="78" priority="92" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="77" priority="89" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="76" priority="90" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="75" priority="84">
       <formula>UPPER(F19)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="79">
+    <cfRule type="expression" dxfId="74" priority="85">
       <formula>UPPER(F19)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="80">
+    <cfRule type="expression" dxfId="73" priority="86">
       <formula>UPPER(F19)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="72" priority="81">
       <formula>UPPER(F20)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="76">
+    <cfRule type="expression" dxfId="71" priority="82">
       <formula>UPPER(F20)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="77">
+    <cfRule type="expression" dxfId="70" priority="83">
       <formula>UPPER(F20)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="69" priority="78">
       <formula>UPPER(F17)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="73">
+    <cfRule type="expression" dxfId="68" priority="79">
       <formula>UPPER(F17)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="74">
+    <cfRule type="expression" dxfId="67" priority="80">
       <formula>UPPER(F17)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="66" priority="75">
       <formula>UPPER(F18)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="70">
+    <cfRule type="expression" dxfId="65" priority="76">
       <formula>UPPER(F18)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="71">
+    <cfRule type="expression" dxfId="64" priority="77">
       <formula>UPPER(F18)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="63" priority="69">
       <formula>UPPER(D13)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="64">
+    <cfRule type="expression" dxfId="62" priority="70">
       <formula>UPPER(D13)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="65">
+    <cfRule type="expression" dxfId="61" priority="71">
       <formula>UPPER(D13)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="60" priority="66">
       <formula>UPPER(D14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="61">
+    <cfRule type="expression" dxfId="59" priority="67">
       <formula>UPPER(D14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="62">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>UPPER(D14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>UPPER(D15)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="58">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>UPPER(D15)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="59">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>UPPER(D15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>UPPER(D16)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="55">
+    <cfRule type="expression" dxfId="53" priority="61">
       <formula>UPPER(D16)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="56">
+    <cfRule type="expression" dxfId="52" priority="62">
       <formula>UPPER(D16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>UPPER(D17)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>UPPER(D17)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="49" priority="56">
       <formula>UPPER(D17)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>UPPER(D18)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="47" priority="52">
       <formula>UPPER(D18)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>UPPER(D18)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>UPPER(D19)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>UPPER(D19)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="43" priority="50">
       <formula>UPPER(D19)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>UPPER(D20)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="41" priority="46">
       <formula>UPPER(D20)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="40" priority="47">
       <formula>UPPER(D20)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>UPPER(D10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>UPPER(D10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>UPPER(D10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>UPPER(D8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>UPPER(D8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>UPPER(D8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>UPPER(F8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="30" priority="24">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="24" priority="18">
+      <formula>UPPER(D11)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="19">
+      <formula>UPPER(D11)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>UPPER(D11)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>UPPER(F12)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>UPPER(F12)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>UPPER(F12)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>UPPER(F13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>UPPER(F13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>UPPER(F13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>UPPER(D11)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>UPPER(D11)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
-      <formula>UPPER(D11)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>UPPER(F11)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>UPPER(F12)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>UPPER(F12)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>UPPER(F12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>UPPER(F13)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>UPPER(F13)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>UPPER(F13)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Projektname</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>in Bearbeitung</t>
+  </si>
+  <si>
+    <t>Handschriftenerkennung</t>
   </si>
 </sst>
 </file>
@@ -328,78 +331,33 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="113">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD7BD80"/>
           <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD7BD80"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9797E"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9797E"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -438,27 +396,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -552,6 +489,38 @@
           <bgColor theme="6"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1143,10 +1112,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="116"/>
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="totalRow" dxfId="114"/>
-      <tableStyleElement type="firstColumn" dxfId="113"/>
+      <tableStyleElement type="wholeTable" dxfId="112"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
+      <tableStyleElement type="totalRow" dxfId="110"/>
+      <tableStyleElement type="firstColumn" dxfId="109"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1166,10 +1135,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="10" dataCellStyle="Standard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G20" totalsRowShown="0" headerRowDxfId="4" dataCellStyle="Standard">
   <autoFilter ref="B6:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:G20">
-    <sortCondition sortBy="cellColor" ref="F6:F20" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="F6:F20" dxfId="3"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataCellStyle="Standard"/>
@@ -1458,7 +1427,7 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1585,7 +1554,7 @@
         <v>43174</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G9" s="12"/>
     </row>
@@ -1600,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="13">
-        <v>43185</v>
+        <v>43174</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -1608,7 +1577,21 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11"/>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1648,387 +1631,395 @@
       <c r="G20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10:C11">
-    <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="Vincent">
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="108" priority="187" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="177" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="107" priority="188" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="110" priority="174" operator="containsText" text="mittel">
+    <cfRule type="containsText" dxfId="106" priority="185" operator="containsText" text="mittel">
       <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="109" priority="146" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="105" priority="157" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="147" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="104" priority="158" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="107" priority="142" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="103" priority="153" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="143" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="102" priority="154" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="105" priority="140" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="101" priority="151" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="141" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="100" priority="152" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="103" priority="138" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="99" priority="149" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="139" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="98" priority="150" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="101" priority="135">
+    <cfRule type="expression" dxfId="97" priority="146">
       <formula>UPPER(F14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="136">
+    <cfRule type="expression" dxfId="96" priority="147">
       <formula>UPPER(F14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="137">
+    <cfRule type="expression" dxfId="95" priority="148">
       <formula>UPPER(F14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="98" priority="133" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="94" priority="144" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="134" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="93" priority="145" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="96" priority="131" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="92" priority="142" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="132" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="91" priority="143" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="94" priority="129" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="90" priority="140" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="130" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="89" priority="141" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="92" priority="122">
+    <cfRule type="expression" dxfId="88" priority="133">
       <formula>UPPER(F15)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="123">
+    <cfRule type="expression" dxfId="87" priority="134">
       <formula>UPPER(F15)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="124">
+    <cfRule type="expression" dxfId="86" priority="135">
       <formula>UPPER(F15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="89" priority="116">
+    <cfRule type="expression" dxfId="85" priority="127">
       <formula>UPPER(F16)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="117">
+    <cfRule type="expression" dxfId="84" priority="128">
       <formula>UPPER(F16)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="118">
+    <cfRule type="expression" dxfId="83" priority="129">
       <formula>UPPER(F16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="86" priority="110">
+    <cfRule type="expression" dxfId="82" priority="121">
       <formula>UPPER(F7)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="111">
+    <cfRule type="expression" dxfId="81" priority="122">
       <formula>UPPER(F7)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="112">
+    <cfRule type="expression" dxfId="80" priority="123">
       <formula>UPPER(F7)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="83" priority="102" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="79" priority="113" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="103" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="78" priority="114" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="81" priority="100" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="77" priority="111" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="101" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="76" priority="112" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="79" priority="91" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="75" priority="102" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="92" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="74" priority="103" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="77" priority="89" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="73" priority="100" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="90" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="72" priority="101" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="75" priority="84">
+    <cfRule type="expression" dxfId="71" priority="95">
       <formula>UPPER(F19)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="85">
+    <cfRule type="expression" dxfId="70" priority="96">
       <formula>UPPER(F19)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="86">
+    <cfRule type="expression" dxfId="69" priority="97">
       <formula>UPPER(F19)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="72" priority="81">
+    <cfRule type="expression" dxfId="68" priority="92">
       <formula>UPPER(F20)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="82">
+    <cfRule type="expression" dxfId="67" priority="93">
       <formula>UPPER(F20)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="83">
+    <cfRule type="expression" dxfId="66" priority="94">
       <formula>UPPER(F20)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="69" priority="78">
+    <cfRule type="expression" dxfId="65" priority="89">
       <formula>UPPER(F17)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="79">
+    <cfRule type="expression" dxfId="64" priority="90">
       <formula>UPPER(F17)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="80">
+    <cfRule type="expression" dxfId="63" priority="91">
       <formula>UPPER(F17)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="66" priority="75">
+    <cfRule type="expression" dxfId="62" priority="86">
       <formula>UPPER(F18)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="76">
+    <cfRule type="expression" dxfId="61" priority="87">
       <formula>UPPER(F18)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="77">
+    <cfRule type="expression" dxfId="60" priority="88">
       <formula>UPPER(F18)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="63" priority="69">
+    <cfRule type="expression" dxfId="59" priority="80">
       <formula>UPPER(D13)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="70">
+    <cfRule type="expression" dxfId="58" priority="81">
       <formula>UPPER(D13)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="57" priority="82">
       <formula>UPPER(D13)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="60" priority="66">
+    <cfRule type="expression" dxfId="56" priority="77">
       <formula>UPPER(D14)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="67">
+    <cfRule type="expression" dxfId="55" priority="78">
       <formula>UPPER(D14)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="54" priority="79">
       <formula>UPPER(D14)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="53" priority="74">
       <formula>UPPER(D15)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="52" priority="75">
       <formula>UPPER(D15)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="65">
+    <cfRule type="expression" dxfId="51" priority="76">
       <formula>UPPER(D15)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="50" priority="71">
       <formula>UPPER(D16)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="61">
+    <cfRule type="expression" dxfId="49" priority="72">
       <formula>UPPER(D16)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="62">
+    <cfRule type="expression" dxfId="48" priority="73">
       <formula>UPPER(D16)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="51" priority="54">
+    <cfRule type="expression" dxfId="47" priority="65">
       <formula>UPPER(D17)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="46" priority="66">
       <formula>UPPER(D17)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56">
+    <cfRule type="expression" dxfId="45" priority="67">
       <formula>UPPER(D17)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="48" priority="51">
+    <cfRule type="expression" dxfId="44" priority="62">
       <formula>UPPER(D18)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="52">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>UPPER(D18)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53">
+    <cfRule type="expression" dxfId="42" priority="64">
       <formula>UPPER(D18)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="41" priority="59">
       <formula>UPPER(D19)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="49">
+    <cfRule type="expression" dxfId="40" priority="60">
       <formula>UPPER(D19)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="50">
+    <cfRule type="expression" dxfId="39" priority="61">
       <formula>UPPER(D19)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="42" priority="45">
+    <cfRule type="expression" dxfId="38" priority="56">
       <formula>UPPER(D20)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46">
+    <cfRule type="expression" dxfId="37" priority="57">
       <formula>UPPER(D20)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="47">
+    <cfRule type="expression" dxfId="36" priority="58">
       <formula>UPPER(D20)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>UPPER(D10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="43">
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>UPPER(D10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>UPPER(D10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="32" priority="47">
       <formula>UPPER(D8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="31" priority="48">
       <formula>UPPER(D8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="30" priority="49">
       <formula>UPPER(D8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>UPPER(F8)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>UPPER(F8)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>UPPER(F8)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="24" priority="21">
+      <formula>UPPER(F12)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>UPPER(F12)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>UPPER(F12)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="21" priority="18">
+      <formula>UPPER(F13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="19">
+      <formula>UPPER(F13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>UPPER(F13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="18" priority="15">
+      <formula>UPPER(F10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>UPPER(F10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>UPPER(F10)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="30" priority="24">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>UPPER(F9)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>UPPER(F9)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>UPPER(F9)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="24" priority="18">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>UPPER(D11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="19">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>UPPER(D11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>UPPER(D11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="16" priority="10">
-      <formula>UPPER(F12)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
-      <formula>UPPER(F12)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>UPPER(F12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>UPPER(F13)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>UPPER(F13)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>UPPER(F13)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>UPPER(F10)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>UPPER(F10)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>UPPER(F10)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>UPPER(F11)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>UPPER(F11)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planung.xlsx
+++ b/Planung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Projektname</t>
   </si>
@@ -80,15 +80,9 @@
     <t>nicht Begonnen</t>
   </si>
   <si>
-    <t>Sprachsteuerung erweitern</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>-&gt; Ideen sammeln</t>
-  </si>
-  <si>
     <t>niedrig</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Neue Motoren</t>
   </si>
   <si>
-    <t>Verbindungen überprüfen</t>
-  </si>
-  <si>
     <t>Wettbewerbsleitung bzgl. Platz</t>
   </si>
   <si>
@@ -120,6 +111,9 @@
   </si>
   <si>
     <t>Vortrag ergänzen (neues) + üben</t>
+  </si>
+  <si>
+    <t>Sprachsteuerung fixen</t>
   </si>
 </sst>
 </file>
@@ -323,28 +317,7 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="227">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="198">
     <dxf>
       <fill>
         <patternFill>
@@ -415,6 +388,79 @@
       <fill>
         <patternFill>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -577,48 +623,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -672,27 +676,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -914,69 +897,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1063,27 +983,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1106,27 +1005,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1150,6 +1028,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -1160,6 +1048,100 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1171,12 +1153,107 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1192,6 +1269,216 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1203,153 +1490,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1361,48 +1501,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1414,216 +1512,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1668,69 +1556,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1742,58 +1567,44 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="4"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7BD80"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1873,10 +1684,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Liste &quot;Gruppenprojekt&quot;" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Liste &quot;Gruppenprojekt&quot;" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="226"/>
-      <tableStyleElement type="headerRow" dxfId="225"/>
-      <tableStyleElement type="totalRow" dxfId="224"/>
-      <tableStyleElement type="firstColumn" dxfId="223"/>
+      <tableStyleElement type="wholeTable" dxfId="197"/>
+      <tableStyleElement type="headerRow" dxfId="196"/>
+      <tableStyleElement type="totalRow" dxfId="195"/>
+      <tableStyleElement type="firstColumn" dxfId="194"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1896,10 +1707,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G18" totalsRowShown="0" headerRowDxfId="222" dataCellStyle="Standard">
-  <autoFilter ref="B6:G18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B7:G18">
-    <sortCondition sortBy="cellColor" ref="F6:F18" dxfId="221"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B6:G16" totalsRowShown="0" headerRowDxfId="193" dataCellStyle="Standard">
+  <autoFilter ref="B6:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B7:G16">
+    <sortCondition sortBy="cellColor" ref="D6:D16" dxfId="187"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Aufgaben" dataCellStyle="Standard"/>
@@ -2185,10 +1996,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2263,112 +2074,112 @@
     </row>
     <row r="7" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="13">
         <v>43174</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="13">
-        <v>43174</v>
+        <v>43173</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="13">
-        <v>43174</v>
+        <v>43172</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="13">
         <v>43174</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10"/>
+        <v>19</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="13">
-        <v>43172</v>
+        <v>43174</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="13">
-        <v>43174</v>
+        <v>43177</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -2376,21 +2187,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13">
-        <v>43177</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,377 +2195,318 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="5:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18"/>
-      <c r="G18"/>
+      <c r="G16"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="185" priority="230" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="231" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="183" priority="200" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="201" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="197" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="179" priority="183" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="184" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="177" priority="156" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="157" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="175" priority="154" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="155" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="173" priority="145" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="146" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="171" priority="143" operator="containsText" text="Vincent">
+      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="144" operator="containsText" text="Fabian">
+      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="169" priority="138">
+      <formula>UPPER(F15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="139">
+      <formula>UPPER(F15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="140">
+      <formula>UPPER(F15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="166" priority="135">
+      <formula>UPPER(F16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="136">
+      <formula>UPPER(F16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="137">
+      <formula>UPPER(F16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="163" priority="132">
+      <formula>UPPER(F13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="133">
+      <formula>UPPER(F13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="134">
+      <formula>UPPER(F13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="160" priority="129">
+      <formula>UPPER(F14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="130">
+      <formula>UPPER(F14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="131">
+      <formula>UPPER(F14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="157" priority="108">
+      <formula>UPPER(D13)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="109">
+      <formula>UPPER(D13)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="110">
+      <formula>UPPER(D13)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="154" priority="105">
+      <formula>UPPER(D14)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="106">
+      <formula>UPPER(D14)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="107">
+      <formula>UPPER(D14)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="151" priority="102">
+      <formula>UPPER(D15)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="103">
+      <formula>UPPER(D15)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="104">
+      <formula>UPPER(D15)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="148" priority="99">
+      <formula>UPPER(D16)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="100">
+      <formula>UPPER(D16)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="101">
+      <formula>UPPER(D16)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="145" priority="96">
+      <formula>UPPER(D7)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="97">
+      <formula>UPPER(D7)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="98">
+      <formula>UPPER(D7)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="142" priority="58">
+      <formula>UPPER(F7)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="59">
+      <formula>UPPER(F7)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="60">
+      <formula>UPPER(F7)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="219" priority="220" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="139" priority="50" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="221" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="138" priority="51" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="217" priority="218" operator="containsText" text="mittel">
-      <formula>NOT(ISERROR(SEARCH("mittel",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="216" priority="190" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="191" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C12)))</formula>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="137" priority="47">
+      <formula>UPPER(D8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="48">
+      <formula>UPPER(D8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="49">
+      <formula>UPPER(D8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="134" priority="44">
+      <formula>UPPER(F8)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="45">
+      <formula>UPPER(F8)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="46">
+      <formula>UPPER(F8)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="131" priority="38">
+      <formula>UPPER(D9)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="39">
+      <formula>UPPER(D9)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="40">
+      <formula>UPPER(D9)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="128" priority="32">
+      <formula>UPPER(F9)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="33">
+      <formula>UPPER(F9)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="34">
+      <formula>UPPER(F9)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="125" priority="26">
+      <formula>UPPER(D10)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="27">
+      <formula>UPPER(D10)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="28">
+      <formula>UPPER(D10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="214" priority="186" operator="containsText" text="Vincent">
+    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="Vincent">
       <formula>NOT(ISERROR(SEARCH("Vincent",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="187" operator="containsText" text="Fabian">
+    <cfRule type="containsText" dxfId="121" priority="22" operator="containsText" text="Fabian">
       <formula>NOT(ISERROR(SEARCH("Fabian",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="containsText" dxfId="212" priority="182" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="183" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="210" priority="173" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="174" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="205" priority="160">
-      <formula>UPPER(F14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="161">
-      <formula>UPPER(F14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="162">
-      <formula>UPPER(F14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="202" priority="154">
-      <formula>UPPER(F7)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="155">
-      <formula>UPPER(F7)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="156">
-      <formula>UPPER(F7)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="199" priority="146" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="147" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="197" priority="144" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="145" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="195" priority="135" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="136" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="193" priority="133" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="134" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="191" priority="128">
-      <formula>UPPER(F17)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="129">
-      <formula>UPPER(F17)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="130">
-      <formula>UPPER(F17)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="188" priority="125">
-      <formula>UPPER(F18)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="126">
-      <formula>UPPER(F18)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="127">
-      <formula>UPPER(F18)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="185" priority="122">
-      <formula>UPPER(F15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="123">
-      <formula>UPPER(F15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="124">
-      <formula>UPPER(F15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="182" priority="119">
-      <formula>UPPER(F16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="120">
-      <formula>UPPER(F16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="121">
-      <formula>UPPER(F16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="179" priority="104">
-      <formula>UPPER(D14)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="105">
-      <formula>UPPER(D14)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="106">
-      <formula>UPPER(D14)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="176" priority="98">
-      <formula>UPPER(D15)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="99">
-      <formula>UPPER(D15)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="100">
-      <formula>UPPER(D15)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="173" priority="95">
-      <formula>UPPER(D16)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="96">
-      <formula>UPPER(D16)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="97">
-      <formula>UPPER(D16)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="170" priority="92">
-      <formula>UPPER(D17)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="93">
-      <formula>UPPER(D17)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="94">
-      <formula>UPPER(D17)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="167" priority="89">
-      <formula>UPPER(D18)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="90">
-      <formula>UPPER(D18)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="91">
-      <formula>UPPER(D18)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="164" priority="86">
-      <formula>UPPER(D8)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="87">
-      <formula>UPPER(D8)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="88">
-      <formula>UPPER(D8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="161" priority="57" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="58" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C10)))</formula>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="120" priority="14" operator="containsText" text="niedrig">
+      <formula>NOT(ISERROR(SEARCH("niedrig",D11)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="15">
+      <formula>UPPER(D11)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="16">
+      <formula>UPPER(D11)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="17">
+      <formula>UPPER(D11)="erledigt"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="116" priority="11">
+      <formula>UPPER(F11)="nicht begonnen"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="12">
+      <formula>UPPER(F11)="in Bearbeitung"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="13">
+      <formula>UPPER(F11)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="159" priority="54">
+    <cfRule type="expression" dxfId="113" priority="8">
       <formula>UPPER(F10)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="55">
+    <cfRule type="expression" dxfId="112" priority="9">
       <formula>UPPER(F10)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="56">
+    <cfRule type="expression" dxfId="111" priority="10">
       <formula>UPPER(F10)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="156" priority="48">
-      <formula>UPPER(F8)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="49">
-      <formula>UPPER(F8)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="50">
-      <formula>UPPER(F8)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="153" priority="40" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="41" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="151" priority="37">
-      <formula>UPPER(D9)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="38">
-      <formula>UPPER(D9)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="39">
-      <formula>UPPER(D9)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="148" priority="34">
-      <formula>UPPER(F9)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="35">
-      <formula>UPPER(F9)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="36">
-      <formula>UPPER(F9)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="145" priority="28">
-      <formula>UPPER(D11)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="29">
-      <formula>UPPER(D11)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="30">
-      <formula>UPPER(D11)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="142" priority="25">
-      <formula>UPPER(D10)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="26">
-      <formula>UPPER(D10)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="27">
-      <formula>UPPER(D10)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="139" priority="22">
-      <formula>UPPER(F11)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="23">
-      <formula>UPPER(F11)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="24">
-      <formula>UPPER(F11)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="136" priority="16">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>UPPER(D12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="17">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>UPPER(D12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="18">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>UPPER(D12)="erledigt"</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="niedrig">
+      <formula>NOT(ISERROR(SEARCH("niedrig",D12)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="133" priority="13">
+    <cfRule type="expression" dxfId="110" priority="2">
       <formula>UPPER(F12)="nicht begonnen"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="14">
+    <cfRule type="expression" dxfId="109" priority="3">
       <formula>UPPER(F12)="in Bearbeitung"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="15">
+    <cfRule type="expression" dxfId="108" priority="4">
       <formula>UPPER(F12)="erledigt"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="130" priority="11" operator="containsText" text="Vincent">
-      <formula>NOT(ISERROR(SEARCH("Vincent",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="12" operator="containsText" text="Fabian">
-      <formula>NOT(ISERROR(SEARCH("Fabian",C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>UPPER(D13)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>UPPER(D13)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>UPPER(D13)="erledigt"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="niedrig">
-      <formula>NOT(ISERROR(SEARCH("niedrig",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>UPPER(F13)="nicht begonnen"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>UPPER(F13)="in Bearbeitung"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>UPPER(F13)="erledigt"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
